--- a/NYTimes_news.xlsx
+++ b/NYTimes_news.xlsx
@@ -19,7 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+  <si>
+    <t>Inside Hifter’s Libya: A Police State With an Islamist Twist</t>
+  </si>
+  <si>
+    <t>David D. Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
   <si>
     <t>Ex-C.I.A. Asset, Now a Libyan Strongman, Faces Torture Accusations</t>
   </si>
@@ -33,22 +42,19 @@
     <t>Abdi Latif Dahir</t>
   </si>
   <si>
-    <t>‘The State Against Mandela and the Others’ Review: Sounds of Injustice</t>
-  </si>
-  <si>
-    <t>Glenn Kenny</t>
-  </si>
-  <si>
-    <t>Gunmen Kill at Least 24 at Church in Burkina Faso</t>
-  </si>
-  <si>
-    <t>Reuters</t>
-  </si>
-  <si>
-    <t>Nikita Pearl Waligwa, Star of ‘Queen of Katwe,’ Dies at 15</t>
-  </si>
-  <si>
-    <t>Neil Vigdor</t>
+    <t>White-Lipped Peccary Species May Be in Steep Decline</t>
+  </si>
+  <si>
+    <t>Karen Weintraub</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>The Grisly Deaths of a Woman and a Girl Shock Mexico and Test Its President</t>
+  </si>
+  <si>
+    <t>Kirk Semple and Paulina Villegas</t>
   </si>
   <si>
     <t>Napping Away Winter in Montreal’s Nordic Spas</t>
@@ -57,151 +63,91 @@
     <t>Peg Tyre</t>
   </si>
   <si>
+    <t>Coronavirus Live Updates: China Changes Diagnosis Criteria, Resulting in Confusion</t>
+  </si>
+  <si>
+    <t>Steven Lee Myers and Edward Wong</t>
+  </si>
+  <si>
+    <t>Asia Pacific</t>
+  </si>
+  <si>
+    <t>Coronavirus Worsens U.S.-China Ties and Bolsters Hawks in Washington</t>
+  </si>
+  <si>
+    <t>Melina Delkic</t>
+  </si>
+  <si>
+    <t>Your Thursday Briefing</t>
+  </si>
+  <si>
+    <t>Motoko Rich and Eimi Yamamitsu</t>
+  </si>
+  <si>
+    <t>Australian Police Treating Car Fire That Killed 3 Children as Crime Scene</t>
+  </si>
+  <si>
+    <t>Jamie Tarabay</t>
+  </si>
+  <si>
+    <t>Australia/New Zealand</t>
+  </si>
+  <si>
+    <t>What’s Better Than One Family Home in New Zealand? Three of Them</t>
+  </si>
+  <si>
+    <t>Shivani Vora</t>
+  </si>
+  <si>
+    <t>The End of Australia as We Know It</t>
+  </si>
+  <si>
+    <t>Damien Cave and Matthew Abbott</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t>As Canada’s Frustrations Grow Over Rail Blockade, Trudeau Gets Heckled</t>
   </si>
   <si>
     <t>Ian Austen</t>
   </si>
   <si>
-    <t>U.S. Imposes Sanctions on Russian Oil Company Supporting Venezuela’s Leader</t>
-  </si>
-  <si>
-    <t>Lara Jakes</t>
-  </si>
-  <si>
-    <t>El Cholo’s Last Stand</t>
-  </si>
-  <si>
-    <t>Rory Smith</t>
-  </si>
-  <si>
-    <t>Fire Kills 17 at Unaccredited Orphanage in Haiti</t>
-  </si>
-  <si>
-    <t>Harold Isaac and Kirk Semple</t>
-  </si>
-  <si>
-    <t>Ex-North Korean Diplomat Runs for South Korean Parliament</t>
-  </si>
-  <si>
-    <t>Choe Sang-Hun</t>
-  </si>
-  <si>
-    <t>14 Die and Hundreds Sickened in Pakistan, and the Cause Is a Mystery</t>
-  </si>
-  <si>
-    <t>Salman Masood</t>
-  </si>
-  <si>
-    <t>She Left Wuhan to Become a Journalist. She’s Back in Time to Get the Story.</t>
-  </si>
-  <si>
-    <t>Cao Li</t>
-  </si>
-  <si>
-    <t>China Expels 3 Wall Street Journal Reporters as Media Relations Sour</t>
-  </si>
-  <si>
-    <t>Alexandra Stevenson</t>
-  </si>
-  <si>
-    <t>Coronavirus Live Updates: Cambodia Says Cruise Ship Passengers Are Virus-Free</t>
-  </si>
-  <si>
-    <t>Jamie Tarabay</t>
-  </si>
-  <si>
-    <t>Australian Police Treating Car Fire That Killed 3 Children as Crime Scene</t>
-  </si>
-  <si>
-    <t>What’s Better Than One Family Home in New Zealand? Three of Them</t>
-  </si>
-  <si>
-    <t>Shivani Vora</t>
-  </si>
-  <si>
-    <t>The End of Australia as We Know It</t>
-  </si>
-  <si>
-    <t>Damien Cave and Matthew Abbott</t>
-  </si>
-  <si>
-    <t>They Wanted Research Funding, So They Entered the Lottery</t>
-  </si>
-  <si>
-    <t>Dalmeet Singh Chawla</t>
-  </si>
-  <si>
-    <t>Dagginess as an Australian Asset</t>
-  </si>
-  <si>
-    <t>Besha Rodell</t>
-  </si>
-  <si>
     <t>U.S. Charges Huawei With Racketeering, Adding Pressure on China</t>
   </si>
   <si>
     <t>David McCabe, Nicole Hong and Katie Benner</t>
   </si>
   <si>
-    <t>Pipeline Protests Cause Widespread Travel Delays Across Canada</t>
-  </si>
-  <si>
-    <t>House Hunting in Toronto: An Original Midcentury-Modern for $1.6 Million</t>
-  </si>
-  <si>
-    <t>Michael Kaminer</t>
-  </si>
-  <si>
-    <t>Lacking Its Own Digital Giants, Europe Plans New Approach</t>
-  </si>
-  <si>
-    <t>Adam Satariano and Monika Pronczuk</t>
-  </si>
-  <si>
-    <t>Greece Has 227 Islands. Here’s How to Choose.</t>
-  </si>
-  <si>
-    <t>Caterina Hrysomallis</t>
-  </si>
-  <si>
-    <t>Coronavirus, Syria, Ben Affleck: Your Wednesday Briefing</t>
-  </si>
-  <si>
-    <t>Sofia Mitra-Thakur and Priya Arora</t>
-  </si>
-  <si>
-    <t>Dortmund’s Erling Haaland Adds to His Totals, and to His Legend</t>
-  </si>
-  <si>
-    <t>‘It’s Like the End of the World’</t>
-  </si>
-  <si>
-    <t>Carlotta Gall</t>
-  </si>
-  <si>
-    <t>How Colum McCann Shaped Loss Into a Book</t>
-  </si>
-  <si>
-    <t>Joumana Khatib</t>
-  </si>
-  <si>
-    <t>Israel Accuses Hamas of ‘Catfishing’ Soldiers to Plant Malware</t>
-  </si>
-  <si>
-    <t>David M. Halbfinger</t>
-  </si>
-  <si>
-    <t>Highly Secretive Iranian Rebels Are Holed Up in Albania. They Gave Us a Tour.</t>
-  </si>
-  <si>
-    <t>Patrick Kingsley</t>
-  </si>
-  <si>
-    <t>From Dubai to Mars, With Stops in Colorado and Japan</t>
-  </si>
-  <si>
-    <t>Kenneth Chang</t>
+    <t>Andrea Kannapell</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Germany Shooting: 8 Killed and Suspect Found Dead in Hanau</t>
+  </si>
+  <si>
+    <t>Melissa Eddy</t>
+  </si>
+  <si>
+    <t>West German Men Fill Race to Replace Chancellor Merkel</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>New Iranian Missiles Pose Threat to U.S. Aircraft in Yemen, Pentagon Says</t>
+  </si>
+  <si>
+    <t>John Ismay and Thomas Gibbons-Neff</t>
+  </si>
+  <si>
+    <t>Frank Anderson, Former Spy Who Supplied Afghan Insurgents, Dies at 78</t>
+  </si>
+  <si>
+    <t>Sam Roberts</t>
   </si>
 </sst>
 </file>
@@ -543,300 +489,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
+      <c r="C21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>